--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slurp1-Chrna7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Slurp1</t>
   </si>
   <si>
     <t>Chrna7</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,10 +537,10 @@
         <v>0.140726</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.7411780816145954</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7411780816145954</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,10 +555,10 @@
         <v>0.160534</v>
       </c>
       <c r="O2">
-        <v>0.01058674760570904</v>
+        <v>0.1208074398611723</v>
       </c>
       <c r="P2">
-        <v>0.01058674760570904</v>
+        <v>0.1208074398611724</v>
       </c>
       <c r="Q2">
         <v>0.002510145298222222</v>
@@ -567,10 +567,10 @@
         <v>0.022591307684</v>
       </c>
       <c r="S2">
-        <v>0.01058674760570904</v>
+        <v>0.08953982652107433</v>
       </c>
       <c r="T2">
-        <v>0.01058674760570904</v>
+        <v>0.08953982652107434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.140726</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.7411780816145954</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7411780816145954</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.001047</v>
+        <v>0.3894360000000001</v>
       </c>
       <c r="N3">
-        <v>15.003141</v>
+        <v>1.168308</v>
       </c>
       <c r="O3">
-        <v>0.9894132523942909</v>
+        <v>0.8791925601388276</v>
       </c>
       <c r="P3">
-        <v>0.9894132523942909</v>
+        <v>0.8791925601388276</v>
       </c>
       <c r="Q3">
-        <v>0.2345924467073333</v>
+        <v>0.018267923512</v>
       </c>
       <c r="R3">
-        <v>2.111332020366</v>
+        <v>0.164411311608</v>
       </c>
       <c r="S3">
-        <v>0.9894132523942909</v>
+        <v>0.651638255093521</v>
       </c>
       <c r="T3">
-        <v>0.9894132523942909</v>
+        <v>0.651638255093521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01638066666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.049142</v>
+      </c>
+      <c r="I4">
+        <v>0.2588219183854046</v>
+      </c>
+      <c r="J4">
+        <v>0.2588219183854046</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05351133333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.160534</v>
+      </c>
+      <c r="O4">
+        <v>0.1208074398611723</v>
+      </c>
+      <c r="P4">
+        <v>0.1208074398611724</v>
+      </c>
+      <c r="Q4">
+        <v>0.0008765513142222222</v>
+      </c>
+      <c r="R4">
+        <v>0.007888961828</v>
+      </c>
+      <c r="S4">
+        <v>0.03126761334009803</v>
+      </c>
+      <c r="T4">
+        <v>0.03126761334009803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01638066666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.049142</v>
+      </c>
+      <c r="I5">
+        <v>0.2588219183854046</v>
+      </c>
+      <c r="J5">
+        <v>0.2588219183854046</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3894360000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.168308</v>
+      </c>
+      <c r="O5">
+        <v>0.8791925601388276</v>
+      </c>
+      <c r="P5">
+        <v>0.8791925601388276</v>
+      </c>
+      <c r="Q5">
+        <v>0.006379221304000001</v>
+      </c>
+      <c r="R5">
+        <v>0.057412991736</v>
+      </c>
+      <c r="S5">
+        <v>0.2275543050453066</v>
+      </c>
+      <c r="T5">
+        <v>0.2275543050453066</v>
       </c>
     </row>
   </sheetData>
